--- a/satd_issue_dataset_Dart.xlsx
+++ b/satd_issue_dataset_Dart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuta/research/technical_debt/GitHub/TechnicalDebtResearch/Data/Dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7C67C21E-9B28-6B40-9168-6CA57EDB55EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6294F465-6DF7-6346-AAB1-6BBEDD67A0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satd_issue_dataset_Dart" sheetId="1" r:id="rId1"/>
@@ -1439,8 +1439,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/satd_issue_dataset_Dart.xlsx
+++ b/satd_issue_dataset_Dart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6294F465-6DF7-6346-AAB1-6BBEDD67A0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{81772706-8844-FE47-87FD-94F00C43F790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="289" uniqueCount="148">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="324" uniqueCount="182">
   <si>
     <t>Issue</t>
   </si>
@@ -39,9 +39,6 @@
     <t>https://github.com/flutter/flutter/issues/42772</t>
   </si>
   <si>
-    <t>https://github.com/flutter/flutter/issues/52960</t>
-  </si>
-  <si>
     <t>https://github.com/flutter/flutter/issues/60227</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
   </si>
   <si>
     <t>https://github.com/flutter/flutter/issues/70111</t>
-  </si>
-  <si>
-    <t>https://github.com/flutter/flutter/issues/70330</t>
   </si>
   <si>
     <t>https://github.com/flutter/flutter/issues/71603</t>
@@ -472,6 +466,413 @@
   <si>
     <t>[Content]
 [Class]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tests</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの修正
+[Class]テストの修正</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://github.com/flutter/flutter/issues/52960</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Design</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Linux templateの有効化
+[Class]機能の改善</t>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">ユウコウ </t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]lint.shが失敗する
+[Class]バグの修正</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">シッパイスル </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト実行時のディレクトリ変更
+[Class]テストの変更</t>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]無視した違反への対応
+[Class]コードの修正</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ムシシタイハン </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://github.com/flutter/flutter/issues/70330</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Map widgetのリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの追加
+[Class]テストの追加</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不明なエラーへの対処
+[Class]バグの修正</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フメイナ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">タイショ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの追加
+[Class]テストの追加</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テストノ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]警告ためのbuildrootの更新
+[Class]機能の更新</t>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要なパラメータの削除
+[Class]不要なパラメータの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]flutter_markdownを移動
+[Class]ファイルの移動</t>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">イドウ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">イドウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]古い非推奨な変更を修正
+[Class]古いコードの修正</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">フルイ </t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t xml:space="preserve">ヒスイショウナヘンコウ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t xml:space="preserve">フルイコード </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]機能の追加
+[Class]機能の追加</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Performance</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]createTickerメソッドが実行に時間がかかる
+[Class]メソッドのパフォーマンス改善</t>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">ジッコウニジカンガカカル </t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]debugCheckHasDirectionalityが遅くなる
+[Class]パフォーマンスの改善</t>
+    <rPh sb="37" eb="38">
+      <t xml:space="preserve">オソクナル </t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Code Style</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]引数名の変更，コードの修正
+[Class]引数名の変更，コードの修正</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ヒキスウメイ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t xml:space="preserve">ヒキスウメイノ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]予期しない呼び出しが行われる
+[Class]バグの修正</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ヨキシナイ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">ヨビダシ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要なテストの削除
+[Class]不要なテストの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リポジトリの移動
+[Class]リポジトリの移動</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">イドウ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">イドウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]?が自動生成されている
+[Class]バグの修正</t>
+    <rPh sb="11" eb="15">
+      <t xml:space="preserve">ジドウセイセイ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]デフォルトのオプションの設定
+[Class]オプションの変更</t>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]失敗するテストの変更
+[Class]テストの変更</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">シッパイスル </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ログの処理を変更
+[Class]機能の変更</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ショリ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの修正
+[Class]テストの修正</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テストノ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨のツールへの対応
+[Class]非推奨のツールへの対応</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ヒスイショウノ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t xml:space="preserve">ヒスイショウノ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]関数TabBar.preferredSizeの修正
+[Class]関数の修正</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの変更
+[Class]テストの変更</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1439,8 +1840,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1459,13 +1860,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="E1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="42">
@@ -1475,6 +1876,9 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>147</v>
       </c>
@@ -1486,6 +1890,9 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>147</v>
       </c>
@@ -1495,7 +1902,10 @@
         <v>52960</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>147</v>
@@ -1506,10 +1916,13 @@
         <v>60227</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>149</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42">
@@ -1517,7 +1930,10 @@
         <v>61015</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>147</v>
@@ -1528,7 +1944,10 @@
         <v>61028</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>147</v>
@@ -1539,10 +1958,13 @@
         <v>61875</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42">
@@ -1550,10 +1972,13 @@
         <v>62919</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>146</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42">
@@ -1561,10 +1986,13 @@
         <v>70111</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42">
@@ -1572,10 +2000,13 @@
         <v>70330</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>154</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42">
@@ -1583,10 +2014,13 @@
         <v>71603</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42">
@@ -1594,10 +2028,13 @@
         <v>71620</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42">
@@ -1605,10 +2042,13 @@
         <v>72453</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42">
@@ -1616,10 +2056,13 @@
         <v>72571</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="42">
@@ -1627,10 +2070,13 @@
         <v>73731</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42">
@@ -1638,10 +2084,13 @@
         <v>73757</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42">
@@ -1649,10 +2098,13 @@
         <v>73923</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>149</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="42">
@@ -1660,10 +2112,13 @@
         <v>74757</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>149</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="42">
@@ -1671,10 +2126,13 @@
         <v>74908</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>149</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42">
@@ -1682,10 +2140,13 @@
         <v>75004</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>149</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="42">
@@ -1693,10 +2154,13 @@
         <v>76257</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="42">
@@ -1704,10 +2168,13 @@
         <v>76259</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>165</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="42">
@@ -1715,10 +2182,16 @@
         <v>76271</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" t="s">
+        <v>149</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42">
@@ -1726,10 +2199,13 @@
         <v>76349</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>149</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="42">
@@ -1737,10 +2213,13 @@
         <v>76547</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>146</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="42">
@@ -1748,10 +2227,13 @@
         <v>78338</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>149</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="42">
@@ -1759,10 +2241,13 @@
         <v>79089</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>149</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="42">
@@ -1770,10 +2255,13 @@
         <v>79403</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>149</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42">
@@ -1781,10 +2269,13 @@
         <v>79415</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>146</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="42">
@@ -1792,10 +2283,13 @@
         <v>79685</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>149</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="42">
@@ -1803,10 +2297,13 @@
         <v>80533</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>146</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="42">
@@ -1814,10 +2311,13 @@
         <v>80552</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>178</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="42">
@@ -1825,10 +2325,13 @@
         <v>80596</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>149</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="42">
@@ -1836,10 +2339,13 @@
         <v>80607</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>146</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="42">
@@ -1847,10 +2353,10 @@
         <v>80732</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="42">
@@ -1858,10 +2364,10 @@
         <v>80755</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42">
@@ -1869,10 +2375,10 @@
         <v>80906</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="42">
@@ -1880,10 +2386,10 @@
         <v>81510</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="42">
@@ -1891,10 +2397,10 @@
         <v>82095</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="42">
@@ -1902,10 +2408,10 @@
         <v>82216</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="42">
@@ -1913,10 +2419,10 @@
         <v>82726</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42">
@@ -1924,10 +2430,10 @@
         <v>82829</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="42">
@@ -1935,10 +2441,10 @@
         <v>82873</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="42">
@@ -1946,10 +2452,10 @@
         <v>82950</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="42">
@@ -1957,10 +2463,10 @@
         <v>82954</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="42">
@@ -1968,10 +2474,10 @@
         <v>83040</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="42">
@@ -1979,10 +2485,10 @@
         <v>83357</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="42">
@@ -1990,10 +2496,10 @@
         <v>83358</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="42">
@@ -2001,10 +2507,10 @@
         <v>83836</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="42">
@@ -2012,10 +2518,10 @@
         <v>84014</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42">
@@ -2023,10 +2529,10 @@
         <v>84225</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="42">
@@ -2034,10 +2540,10 @@
         <v>84260</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42">
@@ -2045,10 +2551,10 @@
         <v>84355</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="42">
@@ -2056,10 +2562,10 @@
         <v>84465</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42">
@@ -2067,10 +2573,10 @@
         <v>84466</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42">
@@ -2078,10 +2584,10 @@
         <v>84734</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="42">
@@ -2089,10 +2595,10 @@
         <v>84837</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="42">
@@ -2100,10 +2606,10 @@
         <v>85066</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="42">
@@ -2111,10 +2617,10 @@
         <v>85163</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="42">
@@ -2122,10 +2628,10 @@
         <v>85271</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42">
@@ -2133,10 +2639,10 @@
         <v>85327</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="42">
@@ -2144,10 +2650,10 @@
         <v>85431</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="42">
@@ -2155,10 +2661,10 @@
         <v>86377</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42">
@@ -2166,10 +2672,10 @@
         <v>86396</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="42">
@@ -2177,10 +2683,10 @@
         <v>86815</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="42">
@@ -2188,10 +2694,10 @@
         <v>87224</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="42">
@@ -2199,10 +2705,10 @@
         <v>87681</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="42">
@@ -2210,10 +2716,10 @@
         <v>87682</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="42">
@@ -2221,10 +2727,10 @@
         <v>87685</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="42">
@@ -2232,10 +2738,10 @@
         <v>87696</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="42">
@@ -2243,10 +2749,10 @@
         <v>87924</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="42">
@@ -2254,10 +2760,10 @@
         <v>88066</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="42">
@@ -2265,10 +2771,10 @@
         <v>88179</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="42">
@@ -2276,10 +2782,10 @@
         <v>88323</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="42">
@@ -2287,10 +2793,10 @@
         <v>89493</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="42">
@@ -2298,10 +2804,10 @@
         <v>89989</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="42">
@@ -2309,10 +2815,10 @@
         <v>90287</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="42">
@@ -2320,10 +2826,10 @@
         <v>90303</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="42">
@@ -2331,10 +2837,10 @@
         <v>90401</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="42">
@@ -2342,10 +2848,10 @@
         <v>90425</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="42">
@@ -2353,10 +2859,10 @@
         <v>90481</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="42">
@@ -2364,10 +2870,10 @@
         <v>90818</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="42">
@@ -2375,10 +2881,10 @@
         <v>91072</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="42">
@@ -2386,10 +2892,10 @@
         <v>91717</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="42">
@@ -2397,10 +2903,10 @@
         <v>92212</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="42">
@@ -2408,10 +2914,10 @@
         <v>92287</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="42">
@@ -2419,10 +2925,10 @@
         <v>93319</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="42">
@@ -2430,10 +2936,10 @@
         <v>93459</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="42">
@@ -2441,10 +2947,10 @@
         <v>95209</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="42">
@@ -2452,10 +2958,10 @@
         <v>27404</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="42">
@@ -2463,10 +2969,10 @@
         <v>32552</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="42">
@@ -2474,10 +2980,10 @@
         <v>32704</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="42">
@@ -2485,10 +2991,10 @@
         <v>33545</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="42">
@@ -2496,10 +3002,10 @@
         <v>33892</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="42">
@@ -2507,10 +3013,10 @@
         <v>35349</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="42">
@@ -2518,10 +3024,10 @@
         <v>35506</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="42">
@@ -2529,10 +3035,10 @@
         <v>35512</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="42">
@@ -2540,10 +3046,10 @@
         <v>35813</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="42">
@@ -2551,10 +3057,10 @@
         <v>36045</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="42">
@@ -2562,10 +3068,10 @@
         <v>38566</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="42">
@@ -2573,10 +3079,10 @@
         <v>38577</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="42">
@@ -2584,10 +3090,10 @@
         <v>39607</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="42">
@@ -2595,10 +3101,10 @@
         <v>40478</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="42">
@@ -2606,10 +3112,10 @@
         <v>40531</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="42">
@@ -2617,10 +3123,10 @@
         <v>40569</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="42">
@@ -2628,10 +3134,10 @@
         <v>40860</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="42">
@@ -2639,10 +3145,10 @@
         <v>40895</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="42">
@@ -2650,10 +3156,10 @@
         <v>41025</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="42">
@@ -2661,10 +3167,10 @@
         <v>41065</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="42">
@@ -2672,10 +3178,10 @@
         <v>41639</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="42">
@@ -2683,10 +3189,10 @@
         <v>41797</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="42">
@@ -2694,10 +3200,10 @@
         <v>42493</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="42">
@@ -2705,10 +3211,10 @@
         <v>42632</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="42">
@@ -2716,10 +3222,10 @@
         <v>42649</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="42">
@@ -2727,10 +3233,10 @@
         <v>42821</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="42">
@@ -2738,10 +3244,10 @@
         <v>43149</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="42">
@@ -2749,10 +3255,10 @@
         <v>43837</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="42">
@@ -2760,10 +3266,10 @@
         <v>44666</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="42">
@@ -2771,10 +3277,10 @@
         <v>44889</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="42">
@@ -2782,10 +3288,10 @@
         <v>45290</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="42">
@@ -2793,10 +3299,10 @@
         <v>45430</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="42">
@@ -2804,10 +3310,10 @@
         <v>45983</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="42">
@@ -2815,10 +3321,10 @@
         <v>46839</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="42">
@@ -2826,10 +3332,10 @@
         <v>47146</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="42">
@@ -2837,10 +3343,10 @@
         <v>1163</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="42">
@@ -2848,10 +3354,10 @@
         <v>1206</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="42">
@@ -2859,10 +3365,10 @@
         <v>1218</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="42">
@@ -2870,10 +3376,10 @@
         <v>1219</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="42">
@@ -2881,10 +3387,10 @@
         <v>1227</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="42">
@@ -2892,10 +3398,10 @@
         <v>1284</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="42">
@@ -2903,10 +3409,10 @@
         <v>1287</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="42">
@@ -2914,10 +3420,10 @@
         <v>1288</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="42">
@@ -2925,10 +3431,10 @@
         <v>1539</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="42">
@@ -2936,10 +3442,10 @@
         <v>1638</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="42">
@@ -2947,10 +3453,10 @@
         <v>1664</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="42">
@@ -2958,10 +3464,10 @@
         <v>1714</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="42">
@@ -2969,10 +3475,10 @@
         <v>1768</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="42">
@@ -2980,10 +3486,10 @@
         <v>1776</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="42">
@@ -2991,10 +3497,10 @@
         <v>1897</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="42">
@@ -3002,10 +3508,10 @@
         <v>1940</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="42">
@@ -3013,10 +3519,10 @@
         <v>1943</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="42">
@@ -3024,10 +3530,10 @@
         <v>2002</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/satd_issue_dataset_Dart.xlsx
+++ b/satd_issue_dataset_Dart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{81772706-8844-FE47-87FD-94F00C43F790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2BA08A7E-85B8-B94F-9041-637D92E1B669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="324" uniqueCount="182">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="349" uniqueCount="206">
   <si>
     <t>Issue</t>
   </si>
@@ -872,6 +872,313 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Build</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ビルドの修正
+[Class]ビルドの修正</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エンジンを小さなライブラリに分割
+[Class]機能の改善</t>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">チイサナ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">ブンカツ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]autoninjaが機能しない
+[Class]機能の修正</t>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">キノウシナイ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Windows RegistryKeyの改善
+[Class]テストの改善</t>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]math.hの追加
+[Class]機能の追加</t>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストでのflutter toolsの使用
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Futures lintを有効にする
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの不要な部分を削除
+[Class]テストの改善</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ブブン </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]バグの修正
+[Class]バグの修正</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]複数の警告への対応
+[Class]コードの修正</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フクスウノ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ケイコクヘノ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Android用テストの追加
+[Class]テストの追加</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">ヨウ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]iOS用テストの追加
+[Class]テストの追加</t>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">ヨウ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]機能の改善
+[Class]機能の改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]パッケージの移行
+[Class]パッケージの移行</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨なプロパティの使用
+[Class]機能の改善</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ヒスイショウナ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要なコンストラクタの削除
+[Class]不要なコンストラクタの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]インスタンスの監視を追加
+[Class]機能の追加</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">カンシ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]avoid_dynamic_calls lintを有効化
+[Class]機能の追加</t>
+    <rPh sb="34" eb="37">
+      <t xml:space="preserve">ユウコウカ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要なコードの削除
+[Class]不要なコードの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Documentation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ドキュメントにTileMode imagesを追加
+[Class]ドキュメントの追加</t>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]破棄されたレイヤが再利用されないようにする
+[Class]機能の改善</t>
+    <rPh sb="18" eb="21">
+      <t xml:space="preserve">サイリヨウサレナイヨウニスル </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TODOが正しい形式か確認
+[Class]機能の改善</t>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">タダシイケイシキカ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">カクニン </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">カイゼン </t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -1840,8 +2147,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2355,8 +2662,11 @@
       <c r="B36" t="s">
         <v>34</v>
       </c>
+      <c r="C36" t="s">
+        <v>182</v>
+      </c>
       <c r="F36" s="2" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="42">
@@ -2366,8 +2676,11 @@
       <c r="B37" t="s">
         <v>35</v>
       </c>
+      <c r="C37" t="s">
+        <v>149</v>
+      </c>
       <c r="F37" s="2" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42">
@@ -2377,8 +2690,11 @@
       <c r="B38" t="s">
         <v>36</v>
       </c>
+      <c r="C38" t="s">
+        <v>146</v>
+      </c>
       <c r="F38" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="42">
@@ -2388,8 +2704,11 @@
       <c r="B39" t="s">
         <v>37</v>
       </c>
+      <c r="C39" t="s">
+        <v>149</v>
+      </c>
       <c r="F39" s="2" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="42">
@@ -2399,8 +2718,11 @@
       <c r="B40" t="s">
         <v>38</v>
       </c>
+      <c r="C40" t="s">
+        <v>146</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="42">
@@ -2410,8 +2732,11 @@
       <c r="B41" t="s">
         <v>39</v>
       </c>
+      <c r="C41" t="s">
+        <v>149</v>
+      </c>
       <c r="F41" s="2" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="42">
@@ -2421,8 +2746,11 @@
       <c r="B42" t="s">
         <v>40</v>
       </c>
+      <c r="C42" t="s">
+        <v>146</v>
+      </c>
       <c r="F42" s="2" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42">
@@ -2432,8 +2760,11 @@
       <c r="B43" t="s">
         <v>41</v>
       </c>
+      <c r="C43" t="s">
+        <v>149</v>
+      </c>
       <c r="F43" s="2" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="42">
@@ -2443,8 +2774,11 @@
       <c r="B44" t="s">
         <v>42</v>
       </c>
+      <c r="C44" t="s">
+        <v>146</v>
+      </c>
       <c r="F44" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="42">
@@ -2454,8 +2788,11 @@
       <c r="B45" t="s">
         <v>43</v>
       </c>
+      <c r="C45" t="s">
+        <v>146</v>
+      </c>
       <c r="F45" s="2" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="42">
@@ -2465,8 +2802,11 @@
       <c r="B46" t="s">
         <v>44</v>
       </c>
+      <c r="C46" t="s">
+        <v>149</v>
+      </c>
       <c r="F46" s="2" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="42">
@@ -2476,8 +2816,11 @@
       <c r="B47" t="s">
         <v>45</v>
       </c>
+      <c r="C47" t="s">
+        <v>149</v>
+      </c>
       <c r="F47" s="2" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="42">
@@ -2487,8 +2830,11 @@
       <c r="B48" t="s">
         <v>46</v>
       </c>
+      <c r="C48" t="s">
+        <v>146</v>
+      </c>
       <c r="F48" s="2" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="42">
@@ -2498,8 +2844,11 @@
       <c r="B49" t="s">
         <v>47</v>
       </c>
+      <c r="C49" t="s">
+        <v>146</v>
+      </c>
       <c r="F49" s="2" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="42">
@@ -2509,8 +2858,11 @@
       <c r="B50" t="s">
         <v>48</v>
       </c>
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
       <c r="F50" s="2" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="42">
@@ -2520,8 +2872,11 @@
       <c r="B51" t="s">
         <v>49</v>
       </c>
+      <c r="C51" t="s">
+        <v>149</v>
+      </c>
       <c r="F51" s="2" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42">
@@ -2531,8 +2886,11 @@
       <c r="B52" t="s">
         <v>50</v>
       </c>
+      <c r="C52" t="s">
+        <v>149</v>
+      </c>
       <c r="F52" s="2" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="42">
@@ -2542,8 +2900,11 @@
       <c r="B53" t="s">
         <v>51</v>
       </c>
+      <c r="C53" t="s">
+        <v>149</v>
+      </c>
       <c r="F53" s="2" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42">
@@ -2553,8 +2914,11 @@
       <c r="B54" t="s">
         <v>52</v>
       </c>
+      <c r="C54" t="s">
+        <v>149</v>
+      </c>
       <c r="F54" s="2" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="42">
@@ -2564,8 +2928,11 @@
       <c r="B55" t="s">
         <v>53</v>
       </c>
+      <c r="C55" t="s">
+        <v>149</v>
+      </c>
       <c r="F55" s="2" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42">
@@ -2575,8 +2942,11 @@
       <c r="B56" t="s">
         <v>54</v>
       </c>
+      <c r="C56" t="s">
+        <v>149</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42">
@@ -2586,8 +2956,11 @@
       <c r="B57" t="s">
         <v>55</v>
       </c>
+      <c r="C57" t="s">
+        <v>149</v>
+      </c>
       <c r="F57" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="42">
@@ -2597,8 +2970,11 @@
       <c r="B58" t="s">
         <v>56</v>
       </c>
+      <c r="C58" t="s">
+        <v>202</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="42">
@@ -2608,8 +2984,11 @@
       <c r="B59" t="s">
         <v>57</v>
       </c>
+      <c r="C59" t="s">
+        <v>149</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="42">
@@ -2619,8 +2998,11 @@
       <c r="B60" t="s">
         <v>58</v>
       </c>
+      <c r="C60" t="s">
+        <v>149</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="42">

--- a/satd_issue_dataset_Dart.xlsx
+++ b/satd_issue_dataset_Dart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2BA08A7E-85B8-B94F-9041-637D92E1B669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2B999491-D6F8-E246-B90A-B303B7B138DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="349" uniqueCount="206">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="382" uniqueCount="236">
   <si>
     <t>Issue</t>
   </si>
@@ -1179,6 +1179,420 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]LUCI try builderのアサートの修正
+[Class]ビルドの修正</t>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]修正に応じてメソッドを移行
+[Class]メソッドの移行</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]JDKを使用してコードを簡素化
+[Class]コードの簡素化</t>
+    <rPh sb="21" eb="24">
+      <t xml:space="preserve">カンソカ </t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t xml:space="preserve">カンソカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スキップされたテストの更新
+[Class]テストの更新</t>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストセットの追加
+[Class]テストの追加</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ThemeData.fixTextFieldOutlineLabelの削除
+[Class]不要なラベルの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サポートされていないPlatform.isMacOSを使用したテストが失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの移行と修正
+[Class]テストの修正</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]複数のテストのクリーンアップ
+[Class]テストの修正</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フクスウノ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要なクラスの削除
+[Class]不要なクラスの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ビルドの修正
+[Class]ビルドの修正</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ビルドノ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要なAPIの削除
+[Class]不要なAPIの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フヨウン </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストで複数回発生するタスクを削除
+[Class]テストの改善</t>
+    <rPh sb="13" eb="16">
+      <t xml:space="preserve">フクスウカイ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ハッセイスル </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ビルド時に不要な詳細テキストが出力される
+[Class]ビルドの修正</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ショウサイテキストガ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">シュツリョクサレル </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨なAPIの削除
+[Class]非推奨なAPIの削除</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ヒスイショウニナッタ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t xml:space="preserve">ヒスイショウニナッタ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストのドキュメントが古い
+[Class]ドキュメントの更新</t>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">フルイ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]壊れたテストの修正
+[Class]テストの修正</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">コワレタ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストでSwiftShader OpenGL代わりにSwANGLEを使用
+[Class]テストの改善</t>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>_x0000__x0019__x0002__x0005_</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スキップされたテストの有効化
+[Class]テストの改善</t>
+    <rPh sb="20" eb="23">
+      <t xml:space="preserve">ユウコウカ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要なコードの削除
+[Class]不要なコードの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]describeEnumの廃止
+[Class]不要なクラスの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要なメソッドの削除
+[Class]不要なメソッドの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]fuchsia_attach.dartの削除
+[Class]不要なコードの削除</t>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]複数のキャッシュを統合
+[Class]機能の改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フクスウノイ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">トウゴウ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Python3をサポートしていないテストを修正
+[Class]テストの修正</t>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要な引数を削除
+[Class]不要なコードの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ヒキスウ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要なスクリプトの削除
+[Class]不要なスクリプトの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]予期しない型が出現した時の処理の修正
+[Class]機能の修正</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ヨキシナイ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">カタ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">シュツゲンシタトキ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">ショリノ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]重複するメソッドの削除
+[Class]重複するメソッドの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">チョウフク </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">チョウフク </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Dart2と互換性のないテストの修正
+[Class]テストの修正</t>
+    <rPh sb="15" eb="18">
+      <t xml:space="preserve">ゴカンセイノ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">シュウセイ </t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -2147,8 +2561,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3012,8 +3426,11 @@
       <c r="B61" t="s">
         <v>59</v>
       </c>
+      <c r="C61" t="s">
+        <v>182</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42">
@@ -3023,8 +3440,11 @@
       <c r="B62" t="s">
         <v>60</v>
       </c>
+      <c r="C62" t="s">
+        <v>146</v>
+      </c>
       <c r="F62" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="42">
@@ -3034,8 +3454,11 @@
       <c r="B63" t="s">
         <v>61</v>
       </c>
+      <c r="C63" t="s">
+        <v>149</v>
+      </c>
       <c r="F63" s="2" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="42">
@@ -3045,8 +3468,11 @@
       <c r="B64" t="s">
         <v>62</v>
       </c>
+      <c r="C64" t="s">
+        <v>149</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42">
@@ -3056,8 +3482,11 @@
       <c r="B65" t="s">
         <v>63</v>
       </c>
+      <c r="C65" t="s">
+        <v>146</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="42">
@@ -3067,8 +3496,11 @@
       <c r="B66" t="s">
         <v>64</v>
       </c>
+      <c r="C66" t="s">
+        <v>146</v>
+      </c>
       <c r="F66" s="2" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="42">
@@ -3078,8 +3510,11 @@
       <c r="B67" t="s">
         <v>65</v>
       </c>
+      <c r="C67" t="s">
+        <v>149</v>
+      </c>
       <c r="F67" s="2" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="42">
@@ -3089,8 +3524,11 @@
       <c r="B68" t="s">
         <v>66</v>
       </c>
+      <c r="C68" t="s">
+        <v>146</v>
+      </c>
       <c r="F68" s="2" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="42">
@@ -3100,8 +3538,11 @@
       <c r="B69" t="s">
         <v>67</v>
       </c>
+      <c r="C69" t="s">
+        <v>146</v>
+      </c>
       <c r="F69" s="2" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="42">
@@ -3111,8 +3552,11 @@
       <c r="B70" t="s">
         <v>68</v>
       </c>
+      <c r="C70" t="s">
+        <v>146</v>
+      </c>
       <c r="F70" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="42">
@@ -3122,8 +3566,11 @@
       <c r="B71" t="s">
         <v>69</v>
       </c>
+      <c r="C71" t="s">
+        <v>146</v>
+      </c>
       <c r="F71" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="42">
@@ -3133,8 +3580,11 @@
       <c r="B72" t="s">
         <v>70</v>
       </c>
+      <c r="C72" t="s">
+        <v>146</v>
+      </c>
       <c r="F72" s="2" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="42">
@@ -3144,8 +3594,11 @@
       <c r="B73" t="s">
         <v>71</v>
       </c>
+      <c r="C73" t="s">
+        <v>149</v>
+      </c>
       <c r="F73" s="2" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="42">
@@ -3155,8 +3608,11 @@
       <c r="B74" t="s">
         <v>72</v>
       </c>
+      <c r="C74" t="s">
+        <v>182</v>
+      </c>
       <c r="F74" s="2" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="42">
@@ -3166,8 +3622,11 @@
       <c r="B75" t="s">
         <v>73</v>
       </c>
+      <c r="C75" t="s">
+        <v>149</v>
+      </c>
       <c r="F75" s="2" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="42">
@@ -3177,8 +3636,11 @@
       <c r="B76" t="s">
         <v>74</v>
       </c>
+      <c r="C76" t="s">
+        <v>146</v>
+      </c>
       <c r="F76" s="2" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="42">
@@ -3188,8 +3650,11 @@
       <c r="B77" t="s">
         <v>75</v>
       </c>
+      <c r="C77" t="s">
+        <v>182</v>
+      </c>
       <c r="F77" s="2" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="42">
@@ -3199,8 +3664,11 @@
       <c r="B78" t="s">
         <v>76</v>
       </c>
+      <c r="C78" t="s">
+        <v>178</v>
+      </c>
       <c r="F78" s="2" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="42">
@@ -3210,8 +3678,11 @@
       <c r="B79" t="s">
         <v>77</v>
       </c>
+      <c r="C79" t="s">
+        <v>202</v>
+      </c>
       <c r="F79" s="2" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="42">
@@ -3221,8 +3692,11 @@
       <c r="B80" t="s">
         <v>78</v>
       </c>
+      <c r="C80" t="s">
+        <v>146</v>
+      </c>
       <c r="F80" s="2" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="42">
@@ -3232,8 +3706,11 @@
       <c r="B81" t="s">
         <v>79</v>
       </c>
+      <c r="C81" t="s">
+        <v>146</v>
+      </c>
       <c r="F81" s="2" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="42">
@@ -3243,8 +3720,11 @@
       <c r="B82" t="s">
         <v>80</v>
       </c>
+      <c r="C82" t="s">
+        <v>146</v>
+      </c>
       <c r="F82" s="2" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="42">
@@ -3254,8 +3734,11 @@
       <c r="B83" t="s">
         <v>81</v>
       </c>
+      <c r="C83" t="s">
+        <v>149</v>
+      </c>
       <c r="F83" s="2" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="42">
@@ -3265,8 +3748,11 @@
       <c r="B84" t="s">
         <v>82</v>
       </c>
+      <c r="C84" t="s">
+        <v>149</v>
+      </c>
       <c r="F84" s="2" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="42">
@@ -3276,8 +3762,11 @@
       <c r="B85" t="s">
         <v>83</v>
       </c>
+      <c r="C85" t="s">
+        <v>149</v>
+      </c>
       <c r="F85" s="2" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="42">
@@ -3287,8 +3776,11 @@
       <c r="B86" t="s">
         <v>84</v>
       </c>
+      <c r="C86" t="s">
+        <v>149</v>
+      </c>
       <c r="F86" s="2" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="42">
@@ -3298,8 +3790,11 @@
       <c r="B87" t="s">
         <v>85</v>
       </c>
+      <c r="C87" t="s">
+        <v>149</v>
+      </c>
       <c r="F87" s="2" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="42">
@@ -3309,8 +3804,11 @@
       <c r="B88" t="s">
         <v>86</v>
       </c>
+      <c r="C88" t="s">
+        <v>146</v>
+      </c>
       <c r="F88" s="2" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="42">
@@ -3320,8 +3818,11 @@
       <c r="B89" t="s">
         <v>87</v>
       </c>
+      <c r="C89" t="s">
+        <v>149</v>
+      </c>
       <c r="F89" s="2" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="42">
@@ -3331,8 +3832,11 @@
       <c r="B90" t="s">
         <v>88</v>
       </c>
+      <c r="C90" t="s">
+        <v>149</v>
+      </c>
       <c r="F90" s="2" t="s">
-        <v>145</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="42">
@@ -3342,8 +3846,11 @@
       <c r="B91" t="s">
         <v>89</v>
       </c>
+      <c r="C91" t="s">
+        <v>149</v>
+      </c>
       <c r="F91" s="2" t="s">
-        <v>145</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="42">
@@ -3353,8 +3860,11 @@
       <c r="B92" t="s">
         <v>90</v>
       </c>
+      <c r="C92" t="s">
+        <v>149</v>
+      </c>
       <c r="F92" s="2" t="s">
-        <v>145</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="42">
@@ -3364,8 +3874,11 @@
       <c r="B93" t="s">
         <v>91</v>
       </c>
+      <c r="C93" t="s">
+        <v>146</v>
+      </c>
       <c r="F93" s="2" t="s">
-        <v>145</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="42">
